--- a/conf.xlsx
+++ b/conf.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="227">
   <si>
     <t>-</t>
   </si>
@@ -681,6 +681,33 @@
   </si>
   <si>
     <t>1Y4</t>
+  </si>
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>Т3</t>
+  </si>
+  <si>
+    <t>Т5</t>
+  </si>
+  <si>
+    <t>Т4</t>
+  </si>
+  <si>
+    <t>Т9</t>
+  </si>
+  <si>
+    <t>Т6</t>
+  </si>
+  <si>
+    <t>Т7</t>
+  </si>
+  <si>
+    <t>Т8</t>
   </si>
 </sst>
 </file>
@@ -2958,10 +2985,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3872,6 +3899,84 @@
         <v>110</v>
       </c>
     </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="B132" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3879,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:A103"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4788,6 +4893,78 @@
         <v>171</v>
       </c>
     </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="21"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="21"/>
+      <c r="B138" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4795,10 +4972,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5544,6 +5721,76 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B127" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B132" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="21"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Var" sheetId="7" r:id="rId7"/>
     <sheet name="typeio" sheetId="8" r:id="rId8"/>
     <sheet name="Method" sheetId="9" r:id="rId9"/>
+    <sheet name="TypeSensor" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="229">
   <si>
     <t>-</t>
   </si>
@@ -708,6 +709,12 @@
   </si>
   <si>
     <t>Т8</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NC</t>
   </si>
 </sst>
 </file>
@@ -1633,6 +1640,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B51"/>
@@ -2987,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
@@ -3986,7 +4035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="A129" sqref="A129:A136"/>
     </sheetView>
   </sheetViews>
@@ -4974,7 +5023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="Var" sheetId="7" r:id="rId7"/>
     <sheet name="typeio" sheetId="8" r:id="rId8"/>
     <sheet name="Method" sheetId="9" r:id="rId9"/>
-    <sheet name="TypeSensor" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="227">
   <si>
     <t>-</t>
   </si>
@@ -709,12 +708,6 @@
   </si>
   <si>
     <t>Т8</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>NC</t>
   </si>
 </sst>
 </file>
@@ -1640,48 +1633,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B51"/>
@@ -4035,7 +3986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A129" sqref="A129:A136"/>
     </sheetView>
   </sheetViews>
@@ -5023,7 +4974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
       <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="242">
   <si>
     <t>-</t>
   </si>
@@ -708,6 +708,51 @@
   </si>
   <si>
     <t>Т8</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>U01</t>
+  </si>
+  <si>
+    <t>U02</t>
+  </si>
+  <si>
+    <t>U03</t>
+  </si>
+  <si>
+    <t>U04</t>
+  </si>
+  <si>
+    <t>U05</t>
+  </si>
+  <si>
+    <t>U06</t>
+  </si>
+  <si>
+    <t>U07</t>
+  </si>
+  <si>
+    <t>U08</t>
+  </si>
+  <si>
+    <t>2Y1</t>
+  </si>
+  <si>
+    <t>HL1</t>
+  </si>
+  <si>
+    <t>HL6</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>К1</t>
   </si>
 </sst>
 </file>
@@ -2683,10 +2728,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,6 +3022,194 @@
       </c>
       <c r="F16" s="18"/>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="5">
+        <v>287</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="5">
+        <v>303</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="16">
+        <v>288</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16">
+        <v>303</v>
+      </c>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="6">
+        <v>274</v>
+      </c>
+      <c r="C19" s="6">
+        <v>266</v>
+      </c>
+      <c r="D19" s="6">
+        <v>291</v>
+      </c>
+      <c r="E19" s="6">
+        <v>303</v>
+      </c>
+      <c r="F19" s="11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="5">
+        <v>275</v>
+      </c>
+      <c r="C20" s="5">
+        <v>267</v>
+      </c>
+      <c r="D20" s="5">
+        <v>292</v>
+      </c>
+      <c r="E20" s="5">
+        <v>303</v>
+      </c>
+      <c r="F20" s="13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="5">
+        <v>276</v>
+      </c>
+      <c r="C21" s="5">
+        <v>268</v>
+      </c>
+      <c r="D21" s="5">
+        <v>293</v>
+      </c>
+      <c r="E21" s="5">
+        <v>303</v>
+      </c>
+      <c r="F21" s="13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="5">
+        <v>277</v>
+      </c>
+      <c r="C22" s="5">
+        <v>269</v>
+      </c>
+      <c r="D22" s="5">
+        <v>294</v>
+      </c>
+      <c r="E22" s="5">
+        <v>303</v>
+      </c>
+      <c r="F22" s="13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="5">
+        <v>278</v>
+      </c>
+      <c r="C23" s="5">
+        <v>270</v>
+      </c>
+      <c r="D23" s="5">
+        <v>295</v>
+      </c>
+      <c r="E23" s="5">
+        <v>303</v>
+      </c>
+      <c r="F23" s="13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="5">
+        <v>279</v>
+      </c>
+      <c r="C24" s="5">
+        <v>271</v>
+      </c>
+      <c r="D24" s="5">
+        <v>296</v>
+      </c>
+      <c r="E24" s="5">
+        <v>303</v>
+      </c>
+      <c r="F24" s="13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="5">
+        <v>280</v>
+      </c>
+      <c r="C25" s="5">
+        <v>272</v>
+      </c>
+      <c r="D25" s="5">
+        <v>297</v>
+      </c>
+      <c r="E25" s="5">
+        <v>303</v>
+      </c>
+      <c r="F25" s="13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" s="5">
+        <v>281</v>
+      </c>
+      <c r="C26" s="5">
+        <v>273</v>
+      </c>
+      <c r="D26" s="5">
+        <v>298</v>
+      </c>
+      <c r="E26" s="5">
+        <v>303</v>
+      </c>
+      <c r="F26" s="13">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2985,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3124,13 +3357,17 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21" t="s">
+        <v>227</v>
+      </c>
       <c r="B17" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21" t="s">
+        <v>228</v>
+      </c>
       <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
@@ -3599,7 +3836,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="B87" s="27" t="s">
         <v>84</v>
@@ -3607,7 +3844,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>84</v>
@@ -3615,15 +3852,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" s="27" t="s">
         <v>85</v>
@@ -3631,31 +3868,31 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B94" s="27" t="s">
         <v>88</v>
@@ -3663,7 +3900,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B95" s="27" t="s">
         <v>88</v>
@@ -3671,15 +3908,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B97" s="27" t="s">
         <v>89</v>
@@ -3687,85 +3924,85 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B99" s="27" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="28"/>
       <c r="B100" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="28"/>
+      <c r="B102" s="27" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B102" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B105" s="30" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
-      <c r="B105" s="30" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>215</v>
-      </c>
+      <c r="A107" s="29"/>
       <c r="B107" s="30" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
-        <v>216</v>
-      </c>
+      <c r="A108" s="29"/>
       <c r="B108" s="30" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>82</v>
@@ -3773,207 +4010,247 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B118" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
-      <c r="B114" s="30" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="29"/>
+      <c r="B119" s="30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
-      <c r="B115" s="30" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="29"/>
+      <c r="B120" s="30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-      <c r="B116" s="30" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="29"/>
+      <c r="B121" s="30" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
-      <c r="B117" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
-      <c r="B118" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B120" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B121" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
       <c r="B122" s="30" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
-        <v>166</v>
-      </c>
+      <c r="A123" s="29"/>
       <c r="B123" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="A124" s="30"/>
       <c r="B124" s="30" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+      <c r="A125" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="B125" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
+      <c r="A126" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="B126" s="30" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
       <c r="B127" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="29"/>
+      <c r="B129" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="29"/>
+      <c r="B130" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="29"/>
+      <c r="B131" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="29"/>
+      <c r="B132" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="30" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="29"/>
+      <c r="B133" s="30" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="22"/>
-      <c r="B132" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
-        <v>225</v>
-      </c>
+      <c r="A137" s="22"/>
       <c r="B137" s="13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B143" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3984,10 +4261,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:A136"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4118,13 +4395,17 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21" t="s">
+        <v>227</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21" t="s">
+        <v>228</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>168</v>
       </c>
@@ -4577,7 +4858,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>170</v>
@@ -4585,7 +4866,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>170</v>
@@ -4593,7 +4874,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>170</v>
@@ -4601,7 +4882,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>170</v>
@@ -4609,7 +4890,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>170</v>
@@ -4617,7 +4898,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>170</v>
@@ -4625,7 +4906,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>170</v>
@@ -4633,7 +4914,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>170</v>
@@ -4641,7 +4922,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>170</v>
@@ -4649,7 +4930,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>170</v>
@@ -4657,7 +4938,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>170</v>
@@ -4665,7 +4946,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>170</v>
@@ -4673,7 +4954,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>170</v>
@@ -4681,14 +4962,16 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
+      <c r="A99" s="26" t="s">
+        <v>154</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>170</v>
       </c>
@@ -4706,36 +4989,38 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
-        <v>210</v>
-      </c>
+      <c r="A102" s="28"/>
       <c r="B102" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="A104" s="30" t="s">
+        <v>211</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
+      <c r="A105" s="30" t="s">
+        <v>238</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>171</v>
@@ -4743,7 +5028,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>171</v>
@@ -4751,7 +5036,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>171</v>
@@ -4759,7 +5044,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>171</v>
@@ -4767,7 +5052,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>171</v>
@@ -4775,7 +5060,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>171</v>
@@ -4783,7 +5068,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>171</v>
@@ -4791,26 +5076,32 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
+      <c r="A114" s="30" t="s">
+        <v>158</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
+      <c r="A115" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
+      <c r="A116" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>171</v>
       </c>
@@ -4828,43 +5119,43 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
+      <c r="A119" s="29"/>
       <c r="B119" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
-        <v>167</v>
-      </c>
+      <c r="A120" s="30"/>
       <c r="B120" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
+      <c r="A122" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
-        <v>166</v>
-      </c>
+      <c r="A123" s="29"/>
       <c r="B123" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="A124" s="30" t="s">
+        <v>166</v>
+      </c>
       <c r="B124" s="1" t="s">
         <v>171</v>
       </c>
@@ -4894,16 +5185,14 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
-        <v>218</v>
-      </c>
+      <c r="A129" s="29"/>
       <c r="B129" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>168</v>
@@ -4911,7 +5200,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>168</v>
@@ -4919,7 +5208,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>168</v>
@@ -4927,7 +5216,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>168</v>
@@ -4935,7 +5224,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>168</v>
@@ -4943,7 +5232,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>168</v>
@@ -4951,19 +5240,27 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="21"/>
-      <c r="B137" s="1"/>
+      <c r="A137" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="21"/>
+      <c r="B139" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4974,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4997,7 +5294,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5005,7 +5302,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5013,7 +5310,7 @@
         <v>130</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5024,7 +5321,7 @@
         <v>131</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5032,7 +5329,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5040,7 +5337,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5048,7 +5345,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5056,7 +5353,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,7 +5361,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5079,22 +5376,41 @@
       <c r="A14" s="21" t="s">
         <v>138</v>
       </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>173</v>
       </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>182</v>
       </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -5417,7 +5733,12 @@
       <c r="A83" s="23"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
+      <c r="A84" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
@@ -5566,13 +5887,17 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="A104" s="30" t="s">
+        <v>238</v>
+      </c>
       <c r="B104" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
+      <c r="A105" s="30" t="s">
+        <v>239</v>
+      </c>
       <c r="B105" s="1">
         <v>1000</v>
       </c>
@@ -5626,13 +5951,17 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
+      <c r="A112" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="B112" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
+      <c r="A113" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="B113" s="1">
         <v>1000</v>
       </c>
@@ -5726,7 +6055,7 @@
         <v>218</v>
       </c>
       <c r="B127" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -5734,7 +6063,7 @@
         <v>219</v>
       </c>
       <c r="B128" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -5742,7 +6071,7 @@
         <v>220</v>
       </c>
       <c r="B129" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -5750,7 +6079,7 @@
         <v>222</v>
       </c>
       <c r="B130" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -5758,7 +6087,7 @@
         <v>221</v>
       </c>
       <c r="B131" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -5766,7 +6095,7 @@
         <v>224</v>
       </c>
       <c r="B132" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -5774,7 +6103,7 @@
         <v>225</v>
       </c>
       <c r="B133" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -5782,7 +6111,7 @@
         <v>226</v>
       </c>
       <c r="B134" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -3220,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:A116"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,7 +5271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Var" sheetId="7" r:id="rId7"/>
     <sheet name="typeio" sheetId="8" r:id="rId8"/>
     <sheet name="Method" sheetId="9" r:id="rId9"/>
+    <sheet name="Converter" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="242">
   <si>
     <t>-</t>
   </si>
@@ -500,12 +501,6 @@
     <t>2U1A</t>
   </si>
   <si>
-    <t>1U1W</t>
-  </si>
-  <si>
-    <t>2U1W</t>
-  </si>
-  <si>
     <t>HEA1</t>
   </si>
   <si>
@@ -753,13 +748,19 @@
   </si>
   <si>
     <t>К1</t>
+  </si>
+  <si>
+    <t>KM1</t>
+  </si>
+  <si>
+    <t>EW1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +798,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1027,7 +1034,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1105,6 +1112,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1443,7 +1453,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -1674,6 +1684,26 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2226,7 +2256,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2471,7 +2503,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2">
         <v>40018</v>
@@ -2485,7 +2517,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="3">
         <v>40019</v>
@@ -2499,7 +2531,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="3">
         <v>40020</v>
@@ -2513,7 +2545,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" s="3">
         <v>40021</v>
@@ -2527,7 +2559,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="3">
         <v>40022</v>
@@ -2541,7 +2573,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" s="3">
         <v>40023</v>
@@ -2555,7 +2587,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" s="3">
         <v>40024</v>
@@ -2569,7 +2601,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9" s="3">
         <v>40025</v>
@@ -2583,7 +2615,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B10" s="3">
         <v>40026</v>
@@ -2597,7 +2629,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" s="3">
         <v>40027</v>
@@ -2611,7 +2643,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B12" s="3">
         <v>40028</v>
@@ -2625,7 +2657,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B13" s="3">
         <v>40029</v>
@@ -2639,7 +2671,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B14" s="3">
         <v>40030</v>
@@ -2653,7 +2685,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" s="3">
         <v>40031</v>
@@ -2667,7 +2699,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" s="3">
         <v>40032</v>
@@ -2681,7 +2713,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B17" s="3">
         <v>40033</v>
@@ -2695,7 +2727,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B18" s="3">
         <v>40034</v>
@@ -2709,7 +2741,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B19" s="4">
         <v>40035</v>
@@ -2766,7 +2798,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" s="6">
         <v>274</v>
@@ -2786,7 +2818,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="5">
         <v>275</v>
@@ -2806,7 +2838,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5">
         <v>276</v>
@@ -2826,7 +2858,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" s="5">
         <v>277</v>
@@ -2846,7 +2878,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" s="5">
         <v>278</v>
@@ -2866,7 +2898,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" s="5">
         <v>279</v>
@@ -2886,7 +2918,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="5">
         <v>280</v>
@@ -2906,7 +2938,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="5">
         <v>281</v>
@@ -3024,7 +3056,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" s="5">
         <v>287</v>
@@ -3038,7 +3070,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" s="16">
         <v>288</v>
@@ -3052,7 +3084,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="6">
         <v>274</v>
@@ -3072,7 +3104,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B20" s="5">
         <v>275</v>
@@ -3092,7 +3124,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B21" s="5">
         <v>276</v>
@@ -3112,7 +3144,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" s="5">
         <v>277</v>
@@ -3132,7 +3164,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B23" s="5">
         <v>278</v>
@@ -3152,7 +3184,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" s="5">
         <v>279</v>
@@ -3172,7 +3204,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B25" s="5">
         <v>280</v>
@@ -3192,7 +3224,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" s="5">
         <v>281</v>
@@ -3218,10 +3250,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,7 +3307,7 @@
         <v>131</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3342,7 +3374,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>13</v>
@@ -3350,7 +3382,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>13</v>
@@ -3358,7 +3390,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>14</v>
@@ -3366,7 +3398,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>15</v>
@@ -3492,7 +3524,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>33</v>
@@ -3506,7 +3538,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>35</v>
@@ -3514,7 +3546,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>36</v>
@@ -3534,7 +3566,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>39</v>
@@ -3632,7 +3664,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>52</v>
@@ -3768,7 +3800,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B77" s="24" t="s">
         <v>74</v>
@@ -3776,7 +3808,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" s="24" t="s">
         <v>75</v>
@@ -3836,7 +3868,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B87" s="27" t="s">
         <v>84</v>
@@ -3844,7 +3876,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>84</v>
@@ -3852,23 +3884,19 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B89" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>85</v>
-      </c>
+      <c r="A90" s="31"/>
+      <c r="B90" s="27"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B91" s="27" t="s">
         <v>85</v>
@@ -3876,31 +3904,31 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B95" s="27" t="s">
         <v>88</v>
@@ -3908,7 +3936,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B96" s="27" t="s">
         <v>88</v>
@@ -3916,15 +3944,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B98" s="27" t="s">
         <v>89</v>
@@ -3932,41 +3960,41 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B100" s="27" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="28"/>
       <c r="B102" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="28"/>
+      <c r="B103" s="27" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>94</v>
@@ -3974,43 +4002,43 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
+      <c r="A107" s="30" t="s">
+        <v>236</v>
+      </c>
       <c r="B107" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="29"/>
       <c r="B108" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="29"/>
+      <c r="B109" s="30" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="B110" s="30" t="s">
         <v>82</v>
@@ -4018,7 +4046,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B111" s="30" t="s">
         <v>82</v>
@@ -4026,7 +4054,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>82</v>
@@ -4034,23 +4062,23 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="B115" s="30" t="s">
         <v>84</v>
@@ -4058,199 +4086,217 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="B118" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
-      <c r="B119" s="30" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" s="30" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
-      <c r="B120" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
-      <c r="B121" s="30" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
       <c r="B122" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
       <c r="B123" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="29"/>
+      <c r="B124" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="29"/>
+      <c r="B125" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="30"/>
+      <c r="B126" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B125" s="30" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="30" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
       <c r="B129" s="30" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
+      <c r="A130" s="30" t="s">
+        <v>164</v>
+      </c>
       <c r="B130" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="29"/>
       <c r="B131" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
       <c r="B132" s="30" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="29"/>
       <c r="B133" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="29"/>
+      <c r="B134" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="29"/>
+      <c r="B135" s="30" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="22"/>
+      <c r="A137" s="21" t="s">
+        <v>217</v>
+      </c>
       <c r="B137" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
-        <v>222</v>
-      </c>
+      <c r="A139" s="22"/>
       <c r="B139" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B143" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4261,10 +4307,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,7 +4329,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4291,7 +4337,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4299,13 +4345,13 @@
         <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4313,7 +4359,7 @@
         <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4321,7 +4367,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4329,7 +4375,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4337,7 +4383,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4345,7 +4391,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4353,7 +4399,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4361,13 +4407,13 @@
         <v>137</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4375,39 +4421,39 @@
         <v>138</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4415,7 +4461,7 @@
         <v>139</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4469,7 @@
         <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4431,13 +4477,13 @@
         <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4445,7 +4491,7 @@
         <v>141</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4453,13 +4499,13 @@
         <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4467,7 +4513,7 @@
         <v>146</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4475,7 +4521,7 @@
         <v>145</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4483,99 +4529,99 @@
         <v>144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4583,7 +4629,7 @@
         <v>147</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4591,7 +4637,7 @@
         <v>148</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -4599,7 +4645,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4607,7 +4653,7 @@
         <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4615,7 +4661,7 @@
         <v>155</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4623,19 +4669,19 @@
         <v>156</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4643,7 +4689,7 @@
         <v>139</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4651,7 +4697,7 @@
         <v>140</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4659,39 +4705,39 @@
         <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4699,169 +4745,169 @@
         <v>149</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -4869,7 +4915,7 @@
         <v>150</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -4877,390 +4923,398 @@
         <v>151</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A89" s="31"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
       <c r="B100" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="28"/>
       <c r="B102" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
-        <v>210</v>
-      </c>
+      <c r="A103" s="28"/>
       <c r="B103" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
+      <c r="A117" s="30" t="s">
+        <v>239</v>
+      </c>
       <c r="B117" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
+      <c r="A118" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="B118" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
       <c r="B119" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
+      <c r="A120" s="29"/>
       <c r="B120" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
-        <v>167</v>
-      </c>
+      <c r="A121" s="30"/>
       <c r="B121" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
+      <c r="A123" s="30" t="s">
+        <v>160</v>
+      </c>
       <c r="B123" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
-        <v>166</v>
+      <c r="A124" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+      <c r="A125" s="30" t="s">
+        <v>164</v>
+      </c>
       <c r="B125" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
       <c r="B126" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
       <c r="B127" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="29"/>
       <c r="B128" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
       <c r="B129" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
-        <v>218</v>
-      </c>
+      <c r="A130" s="29"/>
       <c r="B130" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="21"/>
-      <c r="B138" s="1"/>
+      <c r="A138" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="21"/>
       <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="21"/>
+      <c r="B140" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5269,10 +5323,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5286,7 +5340,7 @@
         <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5382,7 +5436,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -5390,7 +5444,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -5398,7 +5452,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -5406,7 +5460,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
@@ -5505,7 +5559,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -5516,7 +5570,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -5524,7 +5578,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -5538,7 +5592,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -5627,7 +5681,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
@@ -5703,7 +5757,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B77" s="1">
         <v>2</v>
@@ -5711,7 +5765,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -5734,7 +5788,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B84" s="1">
         <v>1000</v>
@@ -5758,23 +5812,18 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B87" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1000</v>
-      </c>
+      <c r="A88" s="26"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B89" s="1">
         <v>1000</v>
@@ -5782,7 +5831,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B90" s="1">
         <v>1000</v>
@@ -5790,7 +5839,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B91" s="1">
         <v>1000</v>
@@ -5798,7 +5847,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92" s="1">
         <v>1000</v>
@@ -5806,7 +5855,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B93" s="1">
         <v>1000</v>
@@ -5814,7 +5863,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B94" s="1">
         <v>1000</v>
@@ -5822,7 +5871,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B95" s="1">
         <v>1000</v>
@@ -5830,7 +5879,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B96" s="1">
         <v>1000</v>
@@ -5838,7 +5887,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B97" s="1">
         <v>1000</v>
@@ -5846,14 +5895,16 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B98" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
+      <c r="A99" s="26" t="s">
+        <v>154</v>
+      </c>
       <c r="B99" s="1">
         <v>1000</v>
       </c>
@@ -5871,16 +5922,14 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
-        <v>210</v>
-      </c>
+      <c r="A102" s="28"/>
       <c r="B102" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B103" s="1">
         <v>1000</v>
@@ -5888,7 +5937,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B104" s="1">
         <v>1000</v>
@@ -5896,7 +5945,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B105" s="1">
         <v>1000</v>
@@ -5904,7 +5953,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="B106" s="1">
         <v>1000</v>
@@ -5920,7 +5969,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B108" s="1">
         <v>1000</v>
@@ -5928,7 +5977,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B109" s="1">
         <v>1000</v>
@@ -5936,7 +5985,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B110" s="1">
         <v>1000</v>
@@ -5944,7 +5993,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B111" s="1">
         <v>1000</v>
@@ -5952,7 +6001,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="B112" s="1">
         <v>1000</v>
@@ -5960,20 +6009,24 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B113" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
+      <c r="A114" s="30" t="s">
+        <v>239</v>
+      </c>
       <c r="B114" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
+      <c r="A115" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="B115" s="1">
         <v>1000</v>
       </c>
@@ -5985,43 +6038,45 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
+      <c r="A117" s="29"/>
       <c r="B117" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
-        <v>167</v>
-      </c>
+      <c r="A118" s="30"/>
       <c r="B118" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B119" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
+      <c r="A120" s="30" t="s">
+        <v>160</v>
+      </c>
       <c r="B120" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
-        <v>166</v>
+      <c r="A121" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="B121" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
+      <c r="A122" s="30" t="s">
+        <v>164</v>
+      </c>
       <c r="B122" s="1">
         <v>1000</v>
       </c>
@@ -6051,16 +6106,14 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="21" t="s">
-        <v>218</v>
-      </c>
+      <c r="A127" s="29"/>
       <c r="B127" s="1">
-        <v>7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B128" s="1">
         <v>7</v>
@@ -6068,7 +6121,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B129" s="1">
         <v>7</v>
@@ -6076,7 +6129,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B130" s="1">
         <v>7</v>
@@ -6084,7 +6137,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B131" s="1">
         <v>7</v>
@@ -6092,7 +6145,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B132" s="1">
         <v>7</v>
@@ -6100,7 +6153,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B133" s="1">
         <v>7</v>
@@ -6108,17 +6161,25 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B134" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="21"/>
+      <c r="A135" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B135" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="Var" sheetId="7" r:id="rId7"/>
     <sheet name="typeio" sheetId="8" r:id="rId8"/>
     <sheet name="Method" sheetId="9" r:id="rId9"/>
-    <sheet name="Converter" sheetId="10" r:id="rId10"/>
+    <sheet name="Heat1" sheetId="10" r:id="rId10"/>
+    <sheet name="Heat2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="245">
   <si>
     <t>-</t>
   </si>
@@ -754,6 +755,15 @@
   </si>
   <si>
     <t>EW1</t>
+  </si>
+  <si>
+    <t>2Y2</t>
+  </si>
+  <si>
+    <t>2Y4</t>
+  </si>
+  <si>
+    <t>2Y3</t>
   </si>
 </sst>
 </file>
@@ -1692,17 +1702,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3250,10 +3268,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,443 +3878,491 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>88</v>
-      </c>
+      <c r="A96" s="31"/>
+      <c r="B96" s="27"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B106" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="27" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="28"/>
+      <c r="B107" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
-      <c r="B102" s="27" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="28"/>
+      <c r="B108" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="27" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="28"/>
+      <c r="B109" s="27" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B104" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="B105" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
-      <c r="B108" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="B109" s="30" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
-        <v>163</v>
-      </c>
+      <c r="A114" s="29"/>
       <c r="B114" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
-        <v>159</v>
-      </c>
+      <c r="A115" s="29"/>
       <c r="B115" s="30" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B126" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="31" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B127" s="30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-      <c r="B122" s="30" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="29"/>
+      <c r="B128" s="30" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
-      <c r="B125" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
       <c r="B129" s="30" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="30" t="s">
-        <v>164</v>
-      </c>
+      <c r="A130" s="29"/>
       <c r="B130" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="29"/>
       <c r="B131" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
+      <c r="A132" s="30"/>
       <c r="B132" s="30" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
+      <c r="A133" s="30" t="s">
+        <v>165</v>
+      </c>
       <c r="B133" s="30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
+      <c r="A134" s="30" t="s">
+        <v>160</v>
+      </c>
       <c r="B134" s="30" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
       <c r="B135" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="29"/>
+      <c r="B137" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="29"/>
+      <c r="B138" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="29"/>
+      <c r="B139" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="29"/>
+      <c r="B140" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="29"/>
+      <c r="B141" s="30" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="22"/>
-      <c r="B139" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="22"/>
+      <c r="B145" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B150" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B151" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4307,10 +4373,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,7 +4978,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>168</v>
@@ -4920,7 +4986,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>168</v>
@@ -4928,19 +4994,23 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
-      <c r="B89" s="1"/>
+      <c r="A89" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>168</v>
@@ -4948,7 +5018,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>168</v>
@@ -4956,7 +5026,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>168</v>
@@ -4964,7 +5034,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>168</v>
@@ -4972,23 +5042,19 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="A95" s="31"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>168</v>
@@ -4996,7 +5062,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>168</v>
@@ -5004,7 +5070,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>168</v>
@@ -5012,7 +5078,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>168</v>
@@ -5020,81 +5086,81 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
+      <c r="A101" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
+      <c r="A102" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
+      <c r="A103" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
-        <v>208</v>
+      <c r="A104" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
-        <v>209</v>
+      <c r="A105" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
-        <v>236</v>
+      <c r="A106" s="26" t="s">
+        <v>154</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>237</v>
-      </c>
+      <c r="A107" s="28"/>
       <c r="B107" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
-        <v>150</v>
-      </c>
+      <c r="A108" s="28"/>
       <c r="B108" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
-        <v>213</v>
-      </c>
+      <c r="A109" s="28"/>
       <c r="B109" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>169</v>
@@ -5102,7 +5168,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>169</v>
@@ -5110,7 +5176,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>169</v>
@@ -5118,7 +5184,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>169</v>
@@ -5126,7 +5192,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>169</v>
@@ -5134,7 +5200,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>169</v>
@@ -5142,7 +5208,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>169</v>
@@ -5150,7 +5216,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>169</v>
@@ -5158,33 +5224,39 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
+      <c r="A119" s="30" t="s">
+        <v>159</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
+      <c r="A120" s="30" t="s">
+        <v>152</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
+      <c r="A121" s="30" t="s">
+        <v>153</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>169</v>
@@ -5192,24 +5264,22 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="31" t="s">
-        <v>241</v>
+      <c r="A124" s="30" t="s">
+        <v>240</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
-        <v>164</v>
-      </c>
+      <c r="A125" s="29"/>
       <c r="B125" s="1" t="s">
         <v>169</v>
       </c>
@@ -5221,80 +5291,76 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
+      <c r="A127" s="30"/>
       <c r="B127" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
+      <c r="A128" s="30" t="s">
+        <v>165</v>
+      </c>
       <c r="B128" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
+      <c r="A129" s="30" t="s">
+        <v>160</v>
+      </c>
       <c r="B129" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
+      <c r="A130" s="31" t="s">
+        <v>241</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="21" t="s">
-        <v>216</v>
+      <c r="A131" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="21" t="s">
-        <v>217</v>
-      </c>
+      <c r="A132" s="29"/>
       <c r="B132" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
-        <v>218</v>
-      </c>
+      <c r="A133" s="29"/>
       <c r="B133" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="21" t="s">
-        <v>220</v>
-      </c>
+      <c r="A134" s="29"/>
       <c r="B134" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="21" t="s">
-        <v>219</v>
-      </c>
+      <c r="A135" s="29"/>
       <c r="B135" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="21" t="s">
-        <v>222</v>
-      </c>
+      <c r="A136" s="29"/>
       <c r="B136" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>166</v>
@@ -5302,19 +5368,67 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="21"/>
-      <c r="B139" s="1"/>
+      <c r="A139" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="21"/>
-      <c r="B140" s="1"/>
+      <c r="A140" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="21"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="21"/>
+      <c r="B146" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="253">
   <si>
     <t>-</t>
   </si>
@@ -487,12 +487,6 @@
     <t>4Y1</t>
   </si>
   <si>
-    <t>1U1</t>
-  </si>
-  <si>
-    <t>2U1</t>
-  </si>
-  <si>
     <t>Y2</t>
   </si>
   <si>
@@ -764,6 +758,36 @@
   </si>
   <si>
     <t>2Y3</t>
+  </si>
+  <si>
+    <t>1U1C</t>
+  </si>
+  <si>
+    <t>2U1C</t>
+  </si>
+  <si>
+    <t>1U1W</t>
+  </si>
+  <si>
+    <t>2U1W</t>
+  </si>
+  <si>
+    <t>1U2A</t>
+  </si>
+  <si>
+    <t>2U2A</t>
+  </si>
+  <si>
+    <t>1U2C</t>
+  </si>
+  <si>
+    <t>2U2C</t>
+  </si>
+  <si>
+    <t>1U2W</t>
+  </si>
+  <si>
+    <t>2U2W</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1487,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -2521,7 +2545,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2">
         <v>40018</v>
@@ -2535,7 +2559,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3">
         <v>40019</v>
@@ -2549,7 +2573,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3">
         <v>40020</v>
@@ -2563,7 +2587,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3">
         <v>40021</v>
@@ -2577,7 +2601,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3">
         <v>40022</v>
@@ -2591,7 +2615,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" s="3">
         <v>40023</v>
@@ -2605,7 +2629,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" s="3">
         <v>40024</v>
@@ -2619,7 +2643,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" s="3">
         <v>40025</v>
@@ -2633,7 +2657,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B10" s="3">
         <v>40026</v>
@@ -2647,7 +2671,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="3">
         <v>40027</v>
@@ -2661,7 +2685,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" s="3">
         <v>40028</v>
@@ -2675,7 +2699,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B13" s="3">
         <v>40029</v>
@@ -2689,7 +2713,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B14" s="3">
         <v>40030</v>
@@ -2703,7 +2727,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B15" s="3">
         <v>40031</v>
@@ -2717,7 +2741,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16" s="3">
         <v>40032</v>
@@ -2731,7 +2755,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B17" s="3">
         <v>40033</v>
@@ -2745,7 +2769,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B18" s="3">
         <v>40034</v>
@@ -2759,7 +2783,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" s="4">
         <v>40035</v>
@@ -2816,7 +2840,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="6">
         <v>274</v>
@@ -2836,7 +2860,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="5">
         <v>275</v>
@@ -2856,7 +2880,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4" s="5">
         <v>276</v>
@@ -2876,7 +2900,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="5">
         <v>277</v>
@@ -2896,7 +2920,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6" s="5">
         <v>278</v>
@@ -2916,7 +2940,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" s="5">
         <v>279</v>
@@ -2936,7 +2960,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" s="5">
         <v>280</v>
@@ -2956,7 +2980,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="5">
         <v>281</v>
@@ -3074,7 +3098,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B17" s="5">
         <v>287</v>
@@ -3088,7 +3112,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B18" s="16">
         <v>288</v>
@@ -3102,7 +3126,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" s="6">
         <v>274</v>
@@ -3122,7 +3146,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" s="5">
         <v>275</v>
@@ -3142,7 +3166,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B21" s="5">
         <v>276</v>
@@ -3162,7 +3186,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B22" s="5">
         <v>277</v>
@@ -3182,7 +3206,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" s="5">
         <v>278</v>
@@ -3202,7 +3226,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" s="5">
         <v>279</v>
@@ -3222,7 +3246,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B25" s="5">
         <v>280</v>
@@ -3242,7 +3266,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" s="5">
         <v>281</v>
@@ -3268,10 +3292,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,7 +3349,7 @@
         <v>131</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,7 +3416,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>13</v>
@@ -3400,7 +3424,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>13</v>
@@ -3408,7 +3432,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>14</v>
@@ -3416,7 +3440,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>15</v>
@@ -3542,7 +3566,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>33</v>
@@ -3556,7 +3580,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>35</v>
@@ -3564,7 +3588,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>36</v>
@@ -3584,7 +3608,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>39</v>
@@ -3624,7 +3648,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>44</v>
@@ -3632,20 +3656,24 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25" t="s">
+        <v>247</v>
+      </c>
       <c r="B49" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25" t="s">
+        <v>248</v>
+      </c>
       <c r="B50" s="24" t="s">
         <v>47</v>
       </c>
@@ -3682,7 +3710,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>52</v>
@@ -3818,7 +3846,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77" s="24" t="s">
         <v>74</v>
@@ -3826,7 +3854,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B78" s="24" t="s">
         <v>75</v>
@@ -3878,7 +3906,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>82</v>
@@ -3886,7 +3914,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B87" s="27" t="s">
         <v>82</v>
@@ -3894,7 +3922,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>82</v>
@@ -3910,7 +3938,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B90" s="27" t="s">
         <v>82</v>
@@ -3918,7 +3946,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B91" s="27" t="s">
         <v>82</v>
@@ -3926,7 +3954,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B92" s="27" t="s">
         <v>82</v>
@@ -3934,7 +3962,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B93" s="27" t="s">
         <v>82</v>
@@ -3942,7 +3970,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B94" s="27" t="s">
         <v>84</v>
@@ -3950,7 +3978,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B95" s="27" t="s">
         <v>84</v>
@@ -3962,7 +3990,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B97" s="27" t="s">
         <v>85</v>
@@ -3970,7 +3998,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B98" s="27" t="s">
         <v>85</v>
@@ -3978,7 +4006,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="B99" s="27" t="s">
         <v>86</v>
@@ -3986,7 +4014,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="B100" s="27" t="s">
         <v>87</v>
@@ -3994,23 +4022,23 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B103" s="27" t="s">
         <v>88</v>
@@ -4018,109 +4046,109 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B106" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="27" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="28"/>
-      <c r="B107" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="28"/>
-      <c r="B108" s="27" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="28"/>
+      <c r="B110" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="28"/>
+      <c r="B111" s="27" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B110" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B113" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
-      <c r="B114" s="30" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+      <c r="B116" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
-      <c r="B115" s="30" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="29"/>
+      <c r="B117" s="30" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B116" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B117" s="30" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="B118" s="30" t="s">
         <v>82</v>
@@ -4128,7 +4156,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>82</v>
@@ -4136,23 +4164,23 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>98</v>
@@ -4160,15 +4188,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B124" s="30" t="s">
         <v>98</v>
@@ -4176,193 +4204,225 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="B126" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="B127" s="30" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B131" s="30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="30" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="29"/>
+      <c r="B132" s="30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
-      <c r="B129" s="30" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="29"/>
+      <c r="B133" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
-      <c r="B130" s="30" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="29"/>
+      <c r="B134" s="30" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
-      <c r="B131" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
       <c r="B135" s="30" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="30" t="s">
-        <v>164</v>
-      </c>
+      <c r="A136" s="30"/>
       <c r="B136" s="30" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
+      <c r="A137" s="30" t="s">
+        <v>163</v>
+      </c>
       <c r="B137" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
+      <c r="A138" s="30" t="s">
+        <v>158</v>
+      </c>
       <c r="B138" s="30" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="29"/>
       <c r="B139" s="30" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
+      <c r="A140" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="B140" s="30" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="29"/>
       <c r="B141" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="29"/>
+      <c r="B142" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="29"/>
+      <c r="B143" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="29"/>
+      <c r="B144" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="29"/>
+      <c r="B145" s="30" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="22"/>
-      <c r="B145" s="13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="21" t="s">
-        <v>222</v>
-      </c>
+      <c r="A149" s="22"/>
       <c r="B149" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B151" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4373,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4395,7 +4455,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4403,7 +4463,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4411,13 +4471,13 @@
         <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4425,7 +4485,7 @@
         <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4433,7 +4493,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4441,7 +4501,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4449,7 +4509,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4457,7 +4517,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4465,7 +4525,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4473,13 +4533,13 @@
         <v>137</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4487,39 +4547,39 @@
         <v>138</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4527,7 +4587,7 @@
         <v>139</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4535,7 +4595,7 @@
         <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4543,13 +4603,13 @@
         <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4557,7 +4617,7 @@
         <v>141</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4565,13 +4625,13 @@
         <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4579,7 +4639,7 @@
         <v>146</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4587,7 +4647,7 @@
         <v>145</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4595,99 +4655,99 @@
         <v>144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4695,7 +4755,7 @@
         <v>147</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4703,7 +4763,7 @@
         <v>148</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -4711,7 +4771,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4719,35 +4779,39 @@
         <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25" t="s">
+        <v>247</v>
+      </c>
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25" t="s">
+        <v>248</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4755,7 +4819,7 @@
         <v>139</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4763,7 +4827,7 @@
         <v>140</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4771,39 +4835,39 @@
         <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4811,193 +4875,193 @@
         <v>149</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -5005,31 +5069,31 @@
         <v>150</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -5037,15 +5101,15 @@
         <v>151</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -5054,381 +5118,413 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="28"/>
+      <c r="A107" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="B107" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="28"/>
+      <c r="A108" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="B108" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
-        <v>208</v>
-      </c>
+      <c r="A110" s="28"/>
       <c r="B110" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
-        <v>209</v>
-      </c>
+      <c r="A111" s="28"/>
       <c r="B111" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+      <c r="A125" s="30" t="s">
+        <v>252</v>
+      </c>
       <c r="B125" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
+      <c r="A126" s="30" t="s">
+        <v>236</v>
+      </c>
       <c r="B126" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
+      <c r="A127" s="30" t="s">
+        <v>237</v>
+      </c>
       <c r="B127" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="30" t="s">
-        <v>160</v>
-      </c>
+      <c r="A129" s="29"/>
       <c r="B129" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="31" t="s">
-        <v>241</v>
-      </c>
+      <c r="A130" s="29"/>
       <c r="B130" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="30" t="s">
-        <v>164</v>
-      </c>
+      <c r="A131" s="30"/>
       <c r="B131" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
+      <c r="A132" s="30" t="s">
+        <v>163</v>
+      </c>
       <c r="B132" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
+      <c r="A133" s="30" t="s">
+        <v>158</v>
+      </c>
       <c r="B133" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
+      <c r="A134" s="31" t="s">
+        <v>239</v>
+      </c>
       <c r="B134" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
+      <c r="A135" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="B135" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="29"/>
       <c r="B136" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
-        <v>216</v>
-      </c>
+      <c r="A137" s="29"/>
       <c r="B137" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
-        <v>217</v>
-      </c>
+      <c r="A138" s="29"/>
       <c r="B138" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
-        <v>218</v>
-      </c>
+      <c r="A139" s="29"/>
       <c r="B139" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
-        <v>220</v>
-      </c>
+      <c r="A140" s="29"/>
       <c r="B140" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="21"/>
-      <c r="B145" s="1"/>
+      <c r="A145" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="21"/>
-      <c r="B146" s="1"/>
+      <c r="A146" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="21"/>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="21"/>
+      <c r="B150" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5439,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5454,7 +5550,7 @@
         <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5550,7 +5646,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -5558,7 +5654,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -5566,7 +5662,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -5574,7 +5670,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
@@ -5673,7 +5769,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -5684,7 +5780,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -5692,7 +5788,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -5706,7 +5802,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -5746,7 +5842,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
@@ -5754,17 +5850,24 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
@@ -5795,7 +5898,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
@@ -5871,7 +5974,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77" s="1">
         <v>2</v>
@@ -5879,7 +5982,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -5902,7 +6005,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B84" s="1">
         <v>1000</v>
@@ -5926,7 +6029,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B87" s="1">
         <v>1000</v>
@@ -5937,7 +6040,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B89" s="1">
         <v>1000</v>
@@ -5945,7 +6048,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B90" s="1">
         <v>1000</v>
@@ -5953,7 +6056,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B91" s="1">
         <v>1000</v>
@@ -5961,7 +6064,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="B92" s="1">
         <v>1000</v>
@@ -5969,7 +6072,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="B93" s="1">
         <v>1000</v>
@@ -5977,7 +6080,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B94" s="1">
         <v>1000</v>
@@ -5985,7 +6088,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B95" s="1">
         <v>1000</v>
@@ -5993,7 +6096,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B96" s="1">
         <v>1000</v>
@@ -6001,7 +6104,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B97" s="1">
         <v>1000</v>
@@ -6009,7 +6112,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B98" s="1">
         <v>1000</v>
@@ -6017,7 +6120,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B99" s="1">
         <v>1000</v>
@@ -6043,7 +6146,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B103" s="1">
         <v>1000</v>
@@ -6051,7 +6154,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B104" s="1">
         <v>1000</v>
@@ -6059,7 +6162,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B105" s="1">
         <v>1000</v>
@@ -6067,7 +6170,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B106" s="1">
         <v>1000</v>
@@ -6091,7 +6194,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B109" s="1">
         <v>1000</v>
@@ -6099,7 +6202,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B110" s="1">
         <v>1000</v>
@@ -6107,7 +6210,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="B111" s="1">
         <v>1000</v>
@@ -6115,7 +6218,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="B112" s="1">
         <v>1000</v>
@@ -6123,7 +6226,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B113" s="1">
         <v>1000</v>
@@ -6131,7 +6234,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B114" s="1">
         <v>1000</v>
@@ -6139,7 +6242,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B115" s="1">
         <v>1000</v>
@@ -6165,7 +6268,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B119" s="1">
         <v>1000</v>
@@ -6173,7 +6276,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B120" s="1">
         <v>1000</v>
@@ -6181,7 +6284,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B121" s="1">
         <v>1000</v>
@@ -6189,7 +6292,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B122" s="1">
         <v>1000</v>
@@ -6227,7 +6330,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B128" s="1">
         <v>7</v>
@@ -6235,7 +6338,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B129" s="1">
         <v>7</v>
@@ -6243,7 +6346,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B130" s="1">
         <v>7</v>
@@ -6251,7 +6354,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B131" s="1">
         <v>7</v>
@@ -6259,7 +6362,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B132" s="1">
         <v>7</v>
@@ -6267,7 +6370,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B133" s="1">
         <v>7</v>
@@ -6275,7 +6378,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B134" s="1">
         <v>7</v>
@@ -6283,7 +6386,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B135" s="1">
         <v>7</v>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="254">
   <si>
     <t>-</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>2U2W</t>
+  </si>
+  <si>
+    <t>PDU</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3294,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,7 +3864,9 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+      <c r="A79" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="B79" s="24" t="s">
         <v>76</v>
       </c>
@@ -4435,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4997,7 +5002,9 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+      <c r="A79" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>165</v>
       </c>
@@ -5535,8 +5542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5989,7 +5996,12 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+      <c r="A79" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="259">
   <si>
     <t>-</t>
   </si>
@@ -244,9 +244,6 @@
     <t>ЭКМ ВТ 2</t>
   </si>
   <si>
-    <t>Резерв_</t>
-  </si>
-  <si>
     <t>Резерв__</t>
   </si>
   <si>
@@ -791,6 +788,24 @@
   </si>
   <si>
     <t>PDU</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>KK1</t>
+  </si>
+  <si>
+    <t>Нагрев 1 токовая перегрузка</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>Т10</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1086,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1152,6 +1167,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1490,7 +1508,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -1757,7 +1775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2079,7 +2099,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="B41" s="1">
         <v>39</v>
@@ -2087,7 +2107,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1">
         <v>40</v>
@@ -2095,7 +2115,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="1">
         <v>41</v>
@@ -2103,7 +2123,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1">
         <v>42</v>
@@ -2111,7 +2131,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="1">
         <v>43</v>
@@ -2119,7 +2139,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="1">
         <v>44</v>
@@ -2127,7 +2147,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1">
         <v>45</v>
@@ -2135,7 +2155,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1">
         <v>46</v>
@@ -2143,7 +2163,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1">
         <v>47</v>
@@ -2151,7 +2171,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1">
         <v>48</v>
@@ -2159,7 +2179,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="1">
         <v>49</v>
@@ -2192,7 +2212,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2200,7 +2220,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2208,7 +2228,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2216,7 +2236,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2224,7 +2244,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -2232,7 +2252,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -2240,7 +2260,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -2248,7 +2268,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -2256,7 +2276,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -2264,7 +2284,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -2272,7 +2292,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -2280,7 +2300,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -2321,7 +2341,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2329,7 +2349,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2337,7 +2357,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2345,7 +2365,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2353,7 +2373,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -2361,7 +2381,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -2369,7 +2389,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -2377,7 +2397,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -2385,7 +2405,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -2393,7 +2413,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -2401,7 +2421,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -2409,7 +2429,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -2417,7 +2437,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -2425,7 +2445,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -2433,7 +2453,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -2441,7 +2461,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -2449,7 +2469,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -2457,7 +2477,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
@@ -2465,7 +2485,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="1">
         <v>19</v>
@@ -2473,7 +2493,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
@@ -2481,7 +2501,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1">
         <v>21</v>
@@ -2489,7 +2509,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1">
         <v>22</v>
@@ -2505,7 +2525,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="1">
         <v>24</v>
@@ -2518,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,25 +2550,33 @@
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2">
         <v>40018</v>
@@ -2559,10 +2587,16 @@
       <c r="D2" s="2">
         <v>40036</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>40054</v>
+      </c>
+      <c r="F2" s="3">
+        <v>40060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3">
         <v>40019</v>
@@ -2573,10 +2607,16 @@
       <c r="D3" s="3">
         <v>40037</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>40055</v>
+      </c>
+      <c r="F3" s="3">
+        <v>40061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3">
         <v>40020</v>
@@ -2587,10 +2627,16 @@
       <c r="D4" s="3">
         <v>40038</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>40056</v>
+      </c>
+      <c r="F4" s="3">
+        <v>40062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3">
         <v>40021</v>
@@ -2601,10 +2647,16 @@
       <c r="D5" s="3">
         <v>40039</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>40057</v>
+      </c>
+      <c r="F5" s="3">
+        <v>40063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3">
         <v>40022</v>
@@ -2615,10 +2667,16 @@
       <c r="D6" s="3">
         <v>40040</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>40058</v>
+      </c>
+      <c r="F6" s="3">
+        <v>40064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="3">
         <v>40023</v>
@@ -2629,10 +2687,16 @@
       <c r="D7" s="3">
         <v>40041</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>40059</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="3">
         <v>40024</v>
@@ -2644,9 +2708,9 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="3">
         <v>40025</v>
@@ -2658,9 +2722,9 @@
         <v>40043</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="3">
         <v>40026</v>
@@ -2672,9 +2736,9 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="3">
         <v>40027</v>
@@ -2686,9 +2750,9 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="3">
         <v>40028</v>
@@ -2700,9 +2764,9 @@
         <v>40046</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="3">
         <v>40029</v>
@@ -2714,9 +2778,9 @@
         <v>40047</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="3">
         <v>40030</v>
@@ -2728,9 +2792,9 @@
         <v>40048</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="3">
         <v>40031</v>
@@ -2742,9 +2806,9 @@
         <v>40049</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" s="3">
         <v>40032</v>
@@ -2758,7 +2822,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="3">
         <v>40033</v>
@@ -2772,7 +2836,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="3">
         <v>40034</v>
@@ -2786,7 +2850,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="4">
         <v>40035</v>
@@ -2823,27 +2887,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="6">
         <v>274</v>
@@ -2863,7 +2927,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="5">
         <v>275</v>
@@ -2883,7 +2947,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="5">
         <v>276</v>
@@ -2903,7 +2967,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="5">
         <v>277</v>
@@ -2923,7 +2987,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="5">
         <v>278</v>
@@ -2943,7 +3007,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="5">
         <v>279</v>
@@ -2963,7 +3027,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="5">
         <v>280</v>
@@ -2983,7 +3047,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="5">
         <v>281</v>
@@ -3003,7 +3067,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="5">
         <v>282</v>
@@ -3017,7 +3081,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="5">
         <v>283</v>
@@ -3031,7 +3095,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="5">
         <v>284</v>
@@ -3045,7 +3109,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="5">
         <v>285</v>
@@ -3059,7 +3123,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="5">
         <v>286</v>
@@ -3073,7 +3137,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="5">
         <v>287</v>
@@ -3087,7 +3151,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="16">
         <v>288</v>
@@ -3101,7 +3165,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="5">
         <v>287</v>
@@ -3115,7 +3179,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="16">
         <v>288</v>
@@ -3129,7 +3193,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="6">
         <v>274</v>
@@ -3149,7 +3213,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="5">
         <v>275</v>
@@ -3169,7 +3233,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21" s="5">
         <v>276</v>
@@ -3189,7 +3253,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" s="5">
         <v>277</v>
@@ -3209,7 +3273,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="5">
         <v>278</v>
@@ -3229,7 +3293,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="5">
         <v>279</v>
@@ -3249,7 +3313,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="5">
         <v>280</v>
@@ -3269,7 +3333,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" s="5">
         <v>281</v>
@@ -3297,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,15 +3375,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -3327,7 +3391,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>2</v>
@@ -3335,29 +3399,31 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>5</v>
@@ -3365,7 +3431,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>6</v>
@@ -3373,7 +3439,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>7</v>
@@ -3381,7 +3447,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>8</v>
@@ -3389,7 +3455,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>9</v>
@@ -3397,7 +3463,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>10</v>
@@ -3411,7 +3477,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>12</v>
@@ -3419,7 +3485,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>13</v>
@@ -3427,7 +3493,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>13</v>
@@ -3435,7 +3501,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>14</v>
@@ -3443,7 +3509,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>15</v>
@@ -3451,7 +3517,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>16</v>
@@ -3459,7 +3525,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>17</v>
@@ -3467,7 +3533,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>18</v>
@@ -3481,7 +3547,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>20</v>
@@ -3489,7 +3555,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>21</v>
@@ -3503,7 +3569,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>23</v>
@@ -3511,7 +3577,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>24</v>
@@ -3519,7 +3585,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>25</v>
@@ -3569,7 +3635,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>33</v>
@@ -3583,7 +3649,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>35</v>
@@ -3591,7 +3657,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>36</v>
@@ -3611,7 +3677,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>39</v>
@@ -3619,7 +3685,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>40</v>
@@ -3627,7 +3693,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>41</v>
@@ -3635,7 +3701,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>42</v>
@@ -3643,7 +3709,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>43</v>
@@ -3651,7 +3717,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>44</v>
@@ -3659,7 +3725,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>45</v>
@@ -3667,7 +3733,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>46</v>
@@ -3675,7 +3741,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>47</v>
@@ -3683,7 +3749,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>48</v>
@@ -3691,7 +3757,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>49</v>
@@ -3699,7 +3765,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>50</v>
@@ -3713,7 +3779,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>52</v>
@@ -3739,7 +3805,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>56</v>
@@ -3830,163 +3896,165 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="25" t="s">
+        <v>255</v>
+      </c>
       <c r="B74" s="24" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3995,350 +4063,350 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="28"/>
       <c r="B110" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="28"/>
       <c r="B111" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
       <c r="B116" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
       <c r="B117" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
       <c r="B132" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="29"/>
       <c r="B133" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="29"/>
       <c r="B134" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
       <c r="B135" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="30"/>
       <c r="B136" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="29"/>
       <c r="B139" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="29"/>
       <c r="B141" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="29"/>
       <c r="B142" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="29"/>
       <c r="B143" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4350,12 +4418,12 @@
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="29"/>
       <c r="B145" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>1</v>
@@ -4363,7 +4431,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>2</v>
@@ -4371,29 +4439,31 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="22"/>
+      <c r="A149" s="21" t="s">
+        <v>258</v>
+      </c>
       <c r="B149" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>5</v>
@@ -4401,7 +4471,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>6</v>
@@ -4409,7 +4479,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>7</v>
@@ -4417,7 +4487,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>8</v>
@@ -4425,7 +4495,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>9</v>
@@ -4440,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,671 +4522,675 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+      <c r="A73" s="25" t="s">
+        <v>255</v>
+      </c>
       <c r="B73" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,409 +5199,413 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="28"/>
       <c r="B109" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="28"/>
       <c r="B110" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="28"/>
       <c r="B111" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
       <c r="B129" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="29"/>
       <c r="B130" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="30"/>
       <c r="B131" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="29"/>
       <c r="B136" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="29"/>
       <c r="B137" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="29"/>
       <c r="B138" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="29"/>
       <c r="B139" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="29"/>
       <c r="B140" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="21"/>
-      <c r="B149" s="1"/>
+      <c r="A149" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="21"/>
@@ -5542,8 +5620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5554,15 +5632,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -5570,7 +5648,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1">
         <v>7</v>
@@ -5578,7 +5656,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -5589,7 +5667,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
@@ -5597,7 +5675,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
@@ -5605,7 +5683,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -5613,7 +5691,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -5621,7 +5699,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
@@ -5629,7 +5707,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
@@ -5637,7 +5715,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5645,7 +5723,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="1">
         <v>6</v>
@@ -5653,7 +5731,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -5661,7 +5739,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -5669,7 +5747,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -5677,7 +5755,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
@@ -5685,7 +5763,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -5693,7 +5771,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -5701,7 +5779,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -5712,7 +5790,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -5720,7 +5798,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -5731,7 +5809,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -5739,7 +5817,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -5747,7 +5825,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -5776,7 +5854,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -5787,7 +5865,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -5795,7 +5873,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -5809,7 +5887,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -5817,7 +5895,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -5825,7 +5903,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -5833,7 +5911,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -5841,7 +5919,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
@@ -5849,7 +5927,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
@@ -5857,7 +5935,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -5865,7 +5943,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -5873,12 +5951,12 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
@@ -5886,7 +5964,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
@@ -5894,7 +5972,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
@@ -5905,7 +5983,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
@@ -5922,7 +6000,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="1">
         <v>2</v>
@@ -5950,7 +6028,12 @@
       <c r="A66" s="23"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
@@ -5981,7 +6064,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B77" s="1">
         <v>2</v>
@@ -5989,7 +6072,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -5997,7 +6080,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B79" s="1">
         <v>2</v>
@@ -6017,7 +6100,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B84" s="1">
         <v>1000</v>
@@ -6025,7 +6108,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B85" s="1">
         <v>1000</v>
@@ -6033,7 +6116,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B86" s="1">
         <v>1000</v>
@@ -6041,7 +6124,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B87" s="1">
         <v>1000</v>
@@ -6052,7 +6135,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89" s="1">
         <v>1000</v>
@@ -6060,7 +6143,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B90" s="1">
         <v>1000</v>
@@ -6068,7 +6151,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B91" s="1">
         <v>1000</v>
@@ -6076,7 +6159,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B92" s="1">
         <v>1000</v>
@@ -6084,7 +6167,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B93" s="1">
         <v>1000</v>
@@ -6092,7 +6175,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B94" s="1">
         <v>1000</v>
@@ -6100,7 +6183,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B95" s="1">
         <v>1000</v>
@@ -6108,7 +6191,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B96" s="1">
         <v>1000</v>
@@ -6116,7 +6199,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" s="1">
         <v>1000</v>
@@ -6124,7 +6207,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B98" s="1">
         <v>1000</v>
@@ -6132,7 +6215,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" s="1">
         <v>1000</v>
@@ -6158,7 +6241,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103" s="1">
         <v>1000</v>
@@ -6166,7 +6249,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B104" s="1">
         <v>1000</v>
@@ -6174,7 +6257,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B105" s="1">
         <v>1000</v>
@@ -6182,7 +6265,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B106" s="1">
         <v>1000</v>
@@ -6190,7 +6273,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B107" s="1">
         <v>1000</v>
@@ -6198,7 +6281,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B108" s="1">
         <v>1000</v>
@@ -6206,7 +6289,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B109" s="1">
         <v>1000</v>
@@ -6214,7 +6297,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="1">
         <v>1000</v>
@@ -6222,7 +6305,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" s="1">
         <v>1000</v>
@@ -6230,7 +6313,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B112" s="1">
         <v>1000</v>
@@ -6238,7 +6321,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B113" s="1">
         <v>1000</v>
@@ -6246,7 +6329,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B114" s="1">
         <v>1000</v>
@@ -6254,7 +6337,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B115" s="1">
         <v>1000</v>
@@ -6280,7 +6363,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B119" s="1">
         <v>1000</v>
@@ -6288,7 +6371,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="1">
         <v>1000</v>
@@ -6296,7 +6379,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B121" s="1">
         <v>1000</v>
@@ -6304,7 +6387,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122" s="1">
         <v>1000</v>
@@ -6342,7 +6425,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B128" s="1">
         <v>7</v>
@@ -6350,7 +6433,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B129" s="1">
         <v>7</v>
@@ -6358,7 +6441,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B130" s="1">
         <v>7</v>
@@ -6366,7 +6449,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B131" s="1">
         <v>7</v>
@@ -6374,7 +6457,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B132" s="1">
         <v>7</v>
@@ -6382,7 +6465,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B133" s="1">
         <v>7</v>
@@ -6390,7 +6473,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B134" s="1">
         <v>7</v>
@@ -6398,7 +6481,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B135" s="1">
         <v>7</v>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -2540,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,7 +2872,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5620,7 +5620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1044,17 +1044,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1084,9 +1073,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1127,18 +1116,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1162,8 +1146,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2540,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,13 +2548,13 @@
       <c r="C1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2871,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,12 +3056,6 @@
       <c r="B10" s="5">
         <v>282</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="5">
-        <v>303</v>
-      </c>
-      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
@@ -3086,12 +3064,6 @@
       <c r="B11" s="5">
         <v>283</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="5">
-        <v>303</v>
-      </c>
-      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -3100,12 +3072,6 @@
       <c r="B12" s="5">
         <v>284</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="5">
-        <v>303</v>
-      </c>
-      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -3114,12 +3080,6 @@
       <c r="B13" s="5">
         <v>285</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="5">
-        <v>303</v>
-      </c>
-      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -3128,12 +3088,6 @@
       <c r="B14" s="5">
         <v>286</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="5">
-        <v>303</v>
-      </c>
-      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
@@ -3142,26 +3096,14 @@
       <c r="B15" s="5">
         <v>287</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="5">
-        <v>303</v>
-      </c>
-      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>288</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16">
-        <v>303</v>
-      </c>
-      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
@@ -3170,26 +3112,14 @@
       <c r="B17" s="5">
         <v>287</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="5">
-        <v>303</v>
-      </c>
-      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>288</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16">
-        <v>303</v>
-      </c>
-      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -3377,12 +3307,12 @@
       <c r="A1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -3390,7 +3320,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -3398,7 +3328,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -3406,7 +3336,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>257</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -3414,7 +3344,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -3422,7 +3352,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -3430,7 +3360,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3438,7 +3368,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>133</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -3446,7 +3376,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -3454,7 +3384,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -3462,7 +3392,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -3470,13 +3400,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -3484,7 +3414,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -3492,7 +3422,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -3500,7 +3430,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>222</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -3508,7 +3438,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>223</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -3516,7 +3446,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -3524,7 +3454,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -3532,7 +3462,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -3540,13 +3470,13 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -3554,7 +3484,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3562,13 +3492,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -3576,7 +3506,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="18" t="s">
         <v>144</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -3584,7 +3514,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -3592,837 +3522,837 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24" t="s">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24" t="s">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24" t="s">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24" t="s">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24" t="s">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24" t="s">
+      <c r="A64" s="20"/>
+      <c r="B64" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24" t="s">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24" t="s">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24" t="s">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24" t="s">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24" t="s">
+      <c r="A69" s="20"/>
+      <c r="B69" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="24" t="s">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="24" t="s">
+      <c r="A71" s="20"/>
+      <c r="B71" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="24" t="s">
+      <c r="A72" s="20"/>
+      <c r="B72" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24" t="s">
+      <c r="A73" s="20"/>
+      <c r="B73" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="21" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24" t="s">
+      <c r="A75" s="20"/>
+      <c r="B75" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24" t="s">
+      <c r="A76" s="20"/>
+      <c r="B76" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24" t="s">
+      <c r="A80" s="20"/>
+      <c r="B80" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24" t="s">
+      <c r="A81" s="20"/>
+      <c r="B81" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24" t="s">
+      <c r="A82" s="20"/>
+      <c r="B82" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24" t="s">
+      <c r="A83" s="20"/>
+      <c r="B83" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="24" t="s">
+      <c r="A84" s="20"/>
+      <c r="B84" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="24"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B107" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="28"/>
-      <c r="B109" s="27" t="s">
+      <c r="A109" s="25"/>
+      <c r="B109" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="28"/>
-      <c r="B110" s="27" t="s">
+      <c r="A110" s="25"/>
+      <c r="B110" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
-      <c r="B111" s="27" t="s">
+      <c r="A111" s="25"/>
+      <c r="B111" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="27" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="27" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="27" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-      <c r="B116" s="30" t="s">
+      <c r="A116" s="26"/>
+      <c r="B116" s="27" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
-      <c r="B117" s="30" t="s">
+      <c r="A117" s="26"/>
+      <c r="B117" s="27" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="27" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="30" t="s">
+      <c r="A130" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="27" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="30" t="s">
+      <c r="A132" s="26"/>
+      <c r="B132" s="27" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="30" t="s">
+      <c r="A133" s="26"/>
+      <c r="B133" s="27" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
-      <c r="B134" s="30" t="s">
+      <c r="A134" s="26"/>
+      <c r="B134" s="27" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
-      <c r="B135" s="30" t="s">
+      <c r="A135" s="26"/>
+      <c r="B135" s="27" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30" t="s">
+      <c r="A136" s="27"/>
+      <c r="B136" s="27" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="27" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="27" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="30" t="s">
+      <c r="A139" s="26"/>
+      <c r="B139" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="30" t="s">
+      <c r="A140" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="27" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="29"/>
-      <c r="B141" s="30" t="s">
+      <c r="A141" s="26"/>
+      <c r="B141" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="29"/>
-      <c r="B142" s="30" t="s">
+      <c r="A142" s="26"/>
+      <c r="B142" s="27" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="29"/>
-      <c r="B143" s="30" t="s">
+      <c r="A143" s="26"/>
+      <c r="B143" s="27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
-      <c r="B144" s="30" t="s">
+      <c r="A144" s="26"/>
+      <c r="B144" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
-      <c r="B145" s="30" t="s">
+      <c r="A145" s="26"/>
+      <c r="B145" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="18" t="s">
         <v>213</v>
       </c>
       <c r="B146" s="13" t="s">
@@ -4430,7 +4360,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="18" t="s">
         <v>214</v>
       </c>
       <c r="B147" s="13" t="s">
@@ -4438,7 +4368,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="18" t="s">
         <v>215</v>
       </c>
       <c r="B148" s="13" t="s">
@@ -4446,7 +4376,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="18" t="s">
         <v>258</v>
       </c>
       <c r="B149" s="13" t="s">
@@ -4454,7 +4384,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="18" t="s">
         <v>216</v>
       </c>
       <c r="B150" s="13" t="s">
@@ -4462,7 +4392,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="21" t="s">
+      <c r="A151" s="18" t="s">
         <v>217</v>
       </c>
       <c r="B151" s="13" t="s">
@@ -4470,7 +4400,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="21" t="s">
+      <c r="A152" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B152" s="13" t="s">
@@ -4478,7 +4408,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B153" s="13" t="s">
@@ -4486,7 +4416,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="21" t="s">
+      <c r="A154" s="18" t="s">
         <v>220</v>
       </c>
       <c r="B154" s="13" t="s">
@@ -4494,7 +4424,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="18" t="s">
         <v>221</v>
       </c>
       <c r="B155" s="13" t="s">
@@ -4510,7 +4440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -4526,7 +4456,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4534,7 +4464,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4542,7 +4472,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4550,7 +4480,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>257</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4558,7 +4488,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4566,7 +4496,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4574,7 +4504,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4582,7 +4512,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4590,7 +4520,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4598,7 +4528,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4606,7 +4536,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4614,13 +4544,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4628,7 +4558,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4636,7 +4566,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4644,7 +4574,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>222</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4652,7 +4582,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>223</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4660,7 +4590,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4668,7 +4598,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4676,7 +4606,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4684,13 +4614,13 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4698,7 +4628,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4706,13 +4636,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4720,7 +4650,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="18" t="s">
         <v>144</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4728,7 +4658,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4736,49 +4666,49 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="22" t="s">
         <v>209</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4786,13 +4716,13 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="22" t="s">
         <v>208</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4800,7 +4730,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="22" t="s">
         <v>207</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4808,19 +4738,19 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="22" t="s">
         <v>154</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4828,7 +4758,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="22" t="s">
         <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4836,7 +4766,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="22" t="s">
         <v>147</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4844,7 +4774,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="22" t="s">
         <v>140</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4852,7 +4782,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="22" t="s">
         <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4860,7 +4790,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="22" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4868,7 +4798,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="22" t="s">
         <v>153</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4876,7 +4806,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="22" t="s">
         <v>246</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -4884,7 +4814,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="22" t="s">
         <v>247</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4892,7 +4822,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="22" t="s">
         <v>138</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4900,7 +4830,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="22" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4908,7 +4838,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="22" t="s">
         <v>142</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4916,13 +4846,13 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="22" t="s">
         <v>155</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4930,25 +4860,25 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="22" t="s">
         <v>148</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4956,85 +4886,85 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5042,25 +4972,25 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="22" t="s">
         <v>159</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -5068,7 +4998,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -5076,7 +5006,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="22" t="s">
         <v>252</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -5084,37 +5014,37 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="23" t="s">
         <v>232</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -5122,7 +5052,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="23" t="s">
         <v>239</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5130,7 +5060,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="23" t="s">
         <v>241</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -5138,7 +5068,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="23" t="s">
         <v>240</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -5146,7 +5076,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="23" t="s">
         <v>149</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -5154,7 +5084,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="23" t="s">
         <v>210</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -5162,7 +5092,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="23" t="s">
         <v>211</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -5170,7 +5100,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="23" t="s">
         <v>212</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -5178,7 +5108,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="23" t="s">
         <v>150</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -5186,7 +5116,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="23" t="s">
         <v>169</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -5194,11 +5124,11 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
+      <c r="A95" s="28"/>
       <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="23" t="s">
         <v>168</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -5206,7 +5136,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="23" t="s">
         <v>170</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -5214,7 +5144,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="23" t="s">
         <v>171</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -5222,7 +5152,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="23" t="s">
         <v>242</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -5230,7 +5160,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="23" t="s">
         <v>243</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -5238,7 +5168,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="23" t="s">
         <v>248</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -5246,7 +5176,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="23" t="s">
         <v>249</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -5254,7 +5184,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="23" t="s">
         <v>172</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -5262,7 +5192,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="23" t="s">
         <v>173</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -5270,7 +5200,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="23" t="s">
         <v>174</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -5278,7 +5208,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="23" t="s">
         <v>175</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -5286,7 +5216,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="23" t="s">
         <v>176</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -5294,7 +5224,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="23" t="s">
         <v>151</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -5302,25 +5232,25 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="28"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="28"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="27" t="s">
         <v>205</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -5328,7 +5258,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="27" t="s">
         <v>206</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -5336,7 +5266,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="27" t="s">
         <v>233</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -5344,7 +5274,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="27" t="s">
         <v>234</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -5352,7 +5282,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="27" t="s">
         <v>149</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -5360,7 +5290,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="27" t="s">
         <v>210</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -5368,7 +5298,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="27" t="s">
         <v>211</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -5376,7 +5306,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="27" t="s">
         <v>212</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -5384,7 +5314,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="27" t="s">
         <v>160</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -5392,7 +5322,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="27" t="s">
         <v>156</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -5400,7 +5330,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="27" t="s">
         <v>244</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -5408,7 +5338,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="27" t="s">
         <v>245</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -5416,7 +5346,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="27" t="s">
         <v>250</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5424,7 +5354,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="27" t="s">
         <v>251</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -5432,7 +5362,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="27" t="s">
         <v>235</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -5440,7 +5370,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="27" t="s">
         <v>236</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -5448,7 +5378,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="27" t="s">
         <v>237</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -5456,25 +5386,25 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
+      <c r="A129" s="26"/>
       <c r="B129" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
+      <c r="A130" s="26"/>
       <c r="B130" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="30"/>
+      <c r="A131" s="27"/>
       <c r="B131" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="27" t="s">
         <v>162</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -5482,7 +5412,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="27" t="s">
         <v>157</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -5490,7 +5420,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="31" t="s">
+      <c r="A134" s="28" t="s">
         <v>238</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -5498,7 +5428,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="27" t="s">
         <v>161</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -5506,37 +5436,37 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
+      <c r="A136" s="26"/>
       <c r="B136" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
+      <c r="A137" s="26"/>
       <c r="B137" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
+      <c r="A138" s="26"/>
       <c r="B138" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
+      <c r="A139" s="26"/>
       <c r="B139" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
+      <c r="A140" s="26"/>
       <c r="B140" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="18" t="s">
         <v>213</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -5544,7 +5474,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="21" t="s">
+      <c r="A142" s="18" t="s">
         <v>214</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -5552,7 +5482,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="18" t="s">
         <v>215</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -5560,7 +5490,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="21" t="s">
+      <c r="A144" s="18" t="s">
         <v>217</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -5568,7 +5498,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="18" t="s">
         <v>216</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -5576,7 +5506,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -5584,7 +5514,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="18" t="s">
         <v>220</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -5592,7 +5522,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="18" t="s">
         <v>221</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -5600,7 +5530,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="18" t="s">
         <v>258</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -5608,7 +5538,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="21"/>
+      <c r="A150" s="18"/>
       <c r="B150" s="1"/>
     </row>
   </sheetData>
@@ -5620,7 +5550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -5639,7 +5569,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="1">
@@ -5647,7 +5577,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="1">
@@ -5655,7 +5585,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="1">
@@ -5663,10 +5593,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="19"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="1">
@@ -5674,7 +5604,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="1">
@@ -5682,7 +5612,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="1">
@@ -5690,7 +5620,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>133</v>
       </c>
       <c r="B9" s="1">
@@ -5698,7 +5628,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="1">
@@ -5706,7 +5636,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="1">
@@ -5714,15 +5644,15 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="19"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="1">
@@ -5730,7 +5660,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B15" s="1">
@@ -5738,7 +5668,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B16" s="1">
@@ -5746,7 +5676,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>222</v>
       </c>
       <c r="B17" s="1">
@@ -5754,7 +5684,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="18" t="s">
         <v>223</v>
       </c>
       <c r="B18" s="1">
@@ -5762,7 +5692,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="1">
@@ -5770,7 +5700,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="1">
@@ -5778,7 +5708,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B21" s="1">
@@ -5786,10 +5716,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B23" s="1">
@@ -5797,7 +5727,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B24" s="1">
@@ -5805,10 +5735,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="19"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B26" s="1">
@@ -5816,7 +5746,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="18" t="s">
         <v>144</v>
       </c>
       <c r="B27" s="1">
@@ -5824,7 +5754,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="1">
@@ -5832,28 +5762,28 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="19"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="19"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="19"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="19"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="19"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="19"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="22" t="s">
         <v>209</v>
       </c>
       <c r="B36" s="1">
@@ -5861,10 +5791,10 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="20"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="22" t="s">
         <v>208</v>
       </c>
       <c r="B38" s="1">
@@ -5872,7 +5802,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="22" t="s">
         <v>207</v>
       </c>
       <c r="B39" s="1">
@@ -5880,13 +5810,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="20"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="20"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="22" t="s">
         <v>154</v>
       </c>
       <c r="B42" s="1">
@@ -5894,7 +5824,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="22" t="s">
         <v>146</v>
       </c>
       <c r="B43" s="1">
@@ -5902,7 +5832,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="22" t="s">
         <v>147</v>
       </c>
       <c r="B44" s="1">
@@ -5910,7 +5840,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="22" t="s">
         <v>140</v>
       </c>
       <c r="B45" s="1">
@@ -5918,7 +5848,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="22" t="s">
         <v>141</v>
       </c>
       <c r="B46" s="1">
@@ -5926,7 +5856,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="22" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="1">
@@ -5934,7 +5864,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="22" t="s">
         <v>153</v>
       </c>
       <c r="B48" s="1">
@@ -5942,7 +5872,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="22" t="s">
         <v>246</v>
       </c>
       <c r="B49" s="1">
@@ -5950,12 +5880,12 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="22" t="s">
         <v>138</v>
       </c>
       <c r="B51" s="1">
@@ -5963,7 +5893,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="22" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="1">
@@ -5971,7 +5901,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="22" t="s">
         <v>142</v>
       </c>
       <c r="B53" s="1">
@@ -5979,10 +5909,10 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="20"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="22" t="s">
         <v>155</v>
       </c>
       <c r="B55" s="1">
@@ -5990,16 +5920,16 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="20"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="20"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="20"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="22" t="s">
         <v>148</v>
       </c>
       <c r="B59" s="1">
@@ -6007,28 +5937,28 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="20"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="20"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="20"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="20"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+      <c r="A64" s="20"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+      <c r="A65" s="20"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="20"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B67" s="1">
@@ -6036,34 +5966,34 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="20"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="20"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+      <c r="A70" s="20"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="20"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="20"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+      <c r="A73" s="20"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="20"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="20"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+      <c r="A76" s="20"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="22" t="s">
         <v>159</v>
       </c>
       <c r="B77" s="1">
@@ -6071,7 +6001,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B78" s="1">
@@ -6079,7 +6009,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="22" t="s">
         <v>252</v>
       </c>
       <c r="B79" s="1">
@@ -6087,19 +6017,19 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
+      <c r="A80" s="20"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+      <c r="A81" s="20"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
+      <c r="A82" s="20"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+      <c r="A83" s="20"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="22" t="s">
         <v>232</v>
       </c>
       <c r="B84" s="1">
@@ -6107,7 +6037,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="23" t="s">
         <v>149</v>
       </c>
       <c r="B85" s="1">
@@ -6115,7 +6045,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="23" t="s">
         <v>150</v>
       </c>
       <c r="B86" s="1">
@@ -6123,7 +6053,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="23" t="s">
         <v>169</v>
       </c>
       <c r="B87" s="1">
@@ -6131,10 +6061,10 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+      <c r="A88" s="23"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="23" t="s">
         <v>168</v>
       </c>
       <c r="B89" s="1">
@@ -6142,7 +6072,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="23" t="s">
         <v>170</v>
       </c>
       <c r="B90" s="1">
@@ -6150,7 +6080,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="23" t="s">
         <v>171</v>
       </c>
       <c r="B91" s="1">
@@ -6158,7 +6088,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="23" t="s">
         <v>242</v>
       </c>
       <c r="B92" s="1">
@@ -6166,7 +6096,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="23" t="s">
         <v>243</v>
       </c>
       <c r="B93" s="1">
@@ -6174,7 +6104,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="23" t="s">
         <v>172</v>
       </c>
       <c r="B94" s="1">
@@ -6182,7 +6112,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="23" t="s">
         <v>173</v>
       </c>
       <c r="B95" s="1">
@@ -6190,7 +6120,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="23" t="s">
         <v>174</v>
       </c>
       <c r="B96" s="1">
@@ -6198,7 +6128,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="23" t="s">
         <v>175</v>
       </c>
       <c r="B97" s="1">
@@ -6206,7 +6136,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="23" t="s">
         <v>176</v>
       </c>
       <c r="B98" s="1">
@@ -6214,7 +6144,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="23" t="s">
         <v>151</v>
       </c>
       <c r="B99" s="1">
@@ -6222,25 +6152,25 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="27" t="s">
         <v>205</v>
       </c>
       <c r="B103" s="1">
@@ -6248,7 +6178,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="27" t="s">
         <v>206</v>
       </c>
       <c r="B104" s="1">
@@ -6256,7 +6186,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="27" t="s">
         <v>233</v>
       </c>
       <c r="B105" s="1">
@@ -6264,7 +6194,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="27" t="s">
         <v>234</v>
       </c>
       <c r="B106" s="1">
@@ -6272,7 +6202,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="27" t="s">
         <v>149</v>
       </c>
       <c r="B107" s="1">
@@ -6280,7 +6210,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="27" t="s">
         <v>149</v>
       </c>
       <c r="B108" s="1">
@@ -6288,7 +6218,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="27" t="s">
         <v>160</v>
       </c>
       <c r="B109" s="1">
@@ -6296,7 +6226,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="27" t="s">
         <v>156</v>
       </c>
       <c r="B110" s="1">
@@ -6304,7 +6234,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="27" t="s">
         <v>244</v>
       </c>
       <c r="B111" s="1">
@@ -6312,7 +6242,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="27" t="s">
         <v>245</v>
       </c>
       <c r="B112" s="1">
@@ -6320,7 +6250,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="27" t="s">
         <v>235</v>
       </c>
       <c r="B113" s="1">
@@ -6328,7 +6258,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="27" t="s">
         <v>236</v>
       </c>
       <c r="B114" s="1">
@@ -6336,7 +6266,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="27" t="s">
         <v>237</v>
       </c>
       <c r="B115" s="1">
@@ -6344,25 +6274,25 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
+      <c r="A116" s="26"/>
       <c r="B116" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
+      <c r="A117" s="26"/>
       <c r="B117" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
+      <c r="A118" s="27"/>
       <c r="B118" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="27" t="s">
         <v>162</v>
       </c>
       <c r="B119" s="1">
@@ -6370,7 +6300,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="27" t="s">
         <v>157</v>
       </c>
       <c r="B120" s="1">
@@ -6378,7 +6308,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="28" t="s">
         <v>238</v>
       </c>
       <c r="B121" s="1">
@@ -6386,7 +6316,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="27" t="s">
         <v>161</v>
       </c>
       <c r="B122" s="1">
@@ -6394,37 +6324,37 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
+      <c r="A123" s="26"/>
       <c r="B123" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="A124" s="26"/>
       <c r="B124" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+      <c r="A125" s="26"/>
       <c r="B125" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
+      <c r="A126" s="26"/>
       <c r="B126" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
+      <c r="A127" s="26"/>
       <c r="B127" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="18" t="s">
         <v>213</v>
       </c>
       <c r="B128" s="1">
@@ -6432,7 +6362,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="18" t="s">
         <v>214</v>
       </c>
       <c r="B129" s="1">
@@ -6440,7 +6370,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="18" t="s">
         <v>215</v>
       </c>
       <c r="B130" s="1">
@@ -6448,7 +6378,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="18" t="s">
         <v>217</v>
       </c>
       <c r="B131" s="1">
@@ -6456,7 +6386,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="18" t="s">
         <v>216</v>
       </c>
       <c r="B132" s="1">
@@ -6464,7 +6394,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B133" s="1">
@@ -6472,7 +6402,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="18" t="s">
         <v>220</v>
       </c>
       <c r="B134" s="1">
@@ -6480,7 +6410,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="18" t="s">
         <v>221</v>
       </c>
       <c r="B135" s="1">
@@ -6488,10 +6418,10 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="21"/>
+      <c r="A136" s="18"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="21"/>
+      <c r="A137" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="260">
   <si>
     <t>-</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>Т10</t>
+  </si>
+  <si>
+    <t>TK1</t>
   </si>
 </sst>
 </file>
@@ -2855,7 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -3289,10 +3292,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,7 +3610,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>39</v>
@@ -3615,301 +3618,301 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B54" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B56" s="21" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B60" s="21" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B75" s="21" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="20"/>
+      <c r="B77" s="21" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B80" s="21" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="21" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="B86" s="24" t="s">
         <v>81</v>
@@ -3917,7 +3920,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B87" s="24" t="s">
         <v>81</v>
@@ -3925,7 +3928,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>81</v>
@@ -3933,23 +3936,23 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B91" s="24" t="s">
         <v>81</v>
@@ -3957,7 +3960,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B92" s="24" t="s">
         <v>81</v>
@@ -3965,7 +3968,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B93" s="24" t="s">
         <v>81</v>
@@ -3973,35 +3976,35 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B95" s="24" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="A97" s="28"/>
+      <c r="B97" s="24"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B98" s="24" t="s">
         <v>84</v>
@@ -4009,47 +4012,47 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B104" s="24" t="s">
         <v>87</v>
@@ -4057,7 +4060,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>87</v>
@@ -4065,15 +4068,15 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" s="24" t="s">
         <v>88</v>
@@ -4081,41 +4084,41 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="24" t="s">
+      <c r="B109" s="24" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="24" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="24" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="27" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="B113" s="27" t="s">
         <v>93</v>
@@ -4123,43 +4126,43 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="27" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
+      <c r="A116" s="27" t="s">
+        <v>233</v>
+      </c>
       <c r="B116" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="26"/>
+      <c r="B118" s="27" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B118" s="27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="B119" s="27" t="s">
         <v>81</v>
@@ -4167,7 +4170,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>81</v>
@@ -4175,7 +4178,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>81</v>
@@ -4183,31 +4186,31 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B125" s="27" t="s">
         <v>97</v>
@@ -4215,7 +4218,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B126" s="27" t="s">
         <v>97</v>
@@ -4223,211 +4226,219 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B130" s="27" t="s">
+      <c r="B131" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="28" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B131" s="27" t="s">
+      <c r="B132" s="27" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
-      <c r="B132" s="27" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="26"/>
+      <c r="B136" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="27"/>
+      <c r="B137" s="27" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B138" s="27" t="s">
+      <c r="B139" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="26"/>
-      <c r="B139" s="27" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="26"/>
+      <c r="B140" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="27" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B140" s="27" t="s">
+      <c r="B141" s="27" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-      <c r="B141" s="27" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="26"/>
       <c r="B142" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="26"/>
       <c r="B143" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="26"/>
       <c r="B144" s="27" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="26"/>
       <c r="B145" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="26"/>
+      <c r="B146" s="27" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B156" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4440,8 +4451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,7 +4755,9 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="22" t="s">
+        <v>259</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>164</v>
       </c>
@@ -5550,8 +5563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5813,7 +5826,12 @@
       <c r="A40" s="20"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">

--- a/conf.xlsx
+++ b/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ai" sheetId="1" r:id="rId1"/>
@@ -3294,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B42"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,8 +4451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5563,7 +5563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
